--- a/swings/2021-11-22/KUCOIN_SPOT_EQZ_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_EQZ_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -603,6 +609,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +664,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.4267</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -709,6 +719,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -761,6 +772,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -813,6 +825,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +880,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>0.4413</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -971,6 +988,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1025,6 +1043,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.4377</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1079,6 +1100,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.447</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1131,6 +1155,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1185,6 +1210,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>0.4366</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1267,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>0.4406</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1291,6 +1322,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1377,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>0.425</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1397,6 +1432,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1449,6 +1485,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1503,6 +1540,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>0.4293</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1555,6 +1595,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1607,6 +1648,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1659,6 +1701,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1711,6 +1754,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1763,6 +1807,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1817,6 +1862,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.4214000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1871,6 +1919,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>0.4244</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1925,6 +1976,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>0.416</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1977,6 +2031,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2029,6 +2084,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2083,6 +2139,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O31" t="n">
+        <v>0.4231</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2135,6 +2194,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2189,6 +2249,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.4131</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2241,6 +2304,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2293,6 +2357,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2345,6 +2410,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2397,6 +2463,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2449,6 +2516,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2503,6 +2571,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.4232</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2555,6 +2626,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2607,6 +2679,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2661,6 +2734,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>0.4152</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2715,6 +2791,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>0.4181</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2767,6 +2846,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2821,6 +2901,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.4153</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2873,6 +2956,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2925,6 +3009,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2979,6 +3064,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.4258</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3033,6 +3121,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>0.4188</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3085,6 +3176,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3139,6 +3231,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>0.4406</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3193,6 +3288,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.4342</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3245,6 +3343,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3299,6 +3398,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>0.4381</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3351,6 +3453,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3405,6 +3508,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>0.4307</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3459,6 +3565,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.4353</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3511,6 +3620,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3563,6 +3673,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3617,6 +3728,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O60" t="n">
+        <v>0.4247</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3669,6 +3783,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3721,6 +3836,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3773,6 +3889,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3827,6 +3944,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0.4483</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3879,6 +3999,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3933,6 +4054,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.4423</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3985,6 +4109,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4039,6 +4164,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>0.4465</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4091,6 +4219,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4143,6 +4272,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4197,6 +4327,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>0.4340000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4249,6 +4382,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4303,6 +4437,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>0.4371</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4355,6 +4492,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4407,6 +4545,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4461,6 +4600,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>0.4278</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4513,6 +4655,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4567,6 +4710,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>0.4329</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4619,6 +4765,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4673,6 +4820,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>0.4255</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4727,6 +4877,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>0.4293</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4781,6 +4934,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>0.4194000000000001</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4833,6 +4989,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4885,6 +5042,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4937,6 +5095,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4989,6 +5148,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5043,6 +5203,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>0.437</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5097,6 +5260,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5149,6 +5315,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5203,6 +5370,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.4329</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5257,6 +5427,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>0.4286</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5311,6 +5484,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.4322</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5365,6 +5541,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.428</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5419,6 +5598,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.4322</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5471,6 +5653,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5523,6 +5706,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5577,6 +5761,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>0.4195</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5631,6 +5818,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>0.4256</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5685,6 +5875,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.4213</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5737,6 +5930,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5791,6 +5985,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.4336</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5845,6 +6042,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>0.4263</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5899,6 +6099,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>0.428</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5953,6 +6156,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>0.4265</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6007,6 +6213,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>0.4287</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6061,6 +6270,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>0.4265</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6115,6 +6327,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.4305</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6169,6 +6384,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.4279</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6221,6 +6439,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6275,6 +6494,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.4301</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6327,6 +6549,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6381,6 +6604,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.4173</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6435,6 +6661,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>0.4399</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6489,6 +6718,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O114" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6541,6 +6773,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6595,6 +6828,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6647,6 +6883,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6701,6 +6938,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>0.4279</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6755,6 +6995,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.4358</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6807,6 +7050,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6861,6 +7105,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.4174</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6915,6 +7162,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.4329</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6969,6 +7219,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7021,6 +7274,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7075,6 +7329,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>0.4309</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7129,6 +7386,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7183,6 +7443,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>0.4321</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7237,6 +7500,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7291,6 +7557,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.4320000000000001</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7343,6 +7612,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7397,6 +7667,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7449,6 +7722,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7501,6 +7775,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7555,6 +7830,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.4361</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7607,6 +7885,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7661,6 +7940,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.4228</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7713,6 +7995,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7767,6 +8050,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>0.4294</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7819,6 +8105,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7871,6 +8158,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7925,6 +8213,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>0.4235</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7979,6 +8270,9 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O142" t="n">
+        <v>0.428</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8031,6 +8325,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8083,6 +8378,7 @@
           <t>EQZUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8136,6 +8432,9 @@
         <is>
           <t>EQZUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.4214000000000001</v>
       </c>
     </row>
   </sheetData>
